--- a/data/source/ts_subset_owl_discuss.xlsx
+++ b/data/source/ts_subset_owl_discuss.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoliva/GitHub/CTDasRDF/data/source/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED0CE2-0406-E147-8F27-295284CEDA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="-15000" windowWidth="25215" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="2900" yWindow="-18580" windowWidth="25220" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ts_subset.csv" sheetId="1" r:id="rId1"/>
@@ -1860,7 +1866,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1879,12 +1885,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1994,9 +2002,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2012,11 +2020,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B111" totalsRowShown="0">
-  <autoFilter ref="A1:B111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:B111" totalsRowShown="0">
+  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="PilotStudy"/>
-    <tableColumn id="2" name="CodelistItems"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PilotStudy"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CodelistItems"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2343,32 +2351,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3"/>
-    <col min="6" max="6" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.5" style="5" customWidth="1"/>
     <col min="8" max="11" width="11" style="3"/>
     <col min="12" max="12" width="13" style="3" customWidth="1"/>
     <col min="13" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="19.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="7" customWidth="1"/>
     <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>603</v>
       </c>
@@ -2379,7 +2387,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2434,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2551,7 +2559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2640,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
@@ -3215,7 +3223,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -3398,7 +3406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3468,7 +3476,7 @@
       </c>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>10</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +3815,7 @@
       </c>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -3904,13 +3912,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50">
+  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:N49">
       <sortCondition ref="E1:E49"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3923,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,24 +3939,24 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -3974,7 +3982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>191</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>194</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>202</v>
       </c>
@@ -4094,7 +4102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
@@ -4118,7 +4126,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>214</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>219</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>224</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>229</v>
       </c>
@@ -4238,7 +4246,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>237</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>242</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>245</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>247</v>
       </c>
@@ -4358,7 +4366,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>252</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>256</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>260</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>264</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>267</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>270</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>274</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>279</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>284</v>
       </c>
@@ -4574,7 +4582,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>289</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>294</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>299</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>304</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>309</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>314</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>319</v>
       </c>
@@ -4742,7 +4750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>324</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>328</v>
       </c>
@@ -4790,7 +4798,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>333</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>342</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>347</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>351</v>
       </c>
@@ -4910,7 +4918,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>354</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>358</v>
       </c>
@@ -4958,7 +4966,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>362</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>364</v>
       </c>
@@ -5006,7 +5014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>367</v>
       </c>
@@ -5030,7 +5038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>369</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>371</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>375</v>
       </c>
@@ -5102,7 +5110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>377</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>386</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>388</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>393</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>398</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>400</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>402</v>
       </c>
@@ -5294,7 +5302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>406</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>411</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>416</v>
       </c>
@@ -5366,7 +5374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>419</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>424</v>
       </c>
@@ -5414,7 +5422,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>428</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>430</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>434</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>439</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>442</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>446</v>
       </c>
@@ -5558,7 +5566,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>450</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>454</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>458</v>
       </c>
@@ -5630,7 +5638,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>462</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>466</v>
       </c>
@@ -5678,7 +5686,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>470</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>475</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>478</v>
       </c>
@@ -5750,7 +5758,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>482</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>486</v>
       </c>
@@ -5798,7 +5806,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>489</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>493</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>497</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>499</v>
       </c>
@@ -5894,7 +5902,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>503</v>
       </c>
@@ -5918,7 +5926,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>508</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>512</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>517</v>
       </c>
@@ -5990,7 +5998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>519</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>523</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -6062,7 +6070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>526</v>
       </c>
@@ -6086,7 +6094,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>531</v>
       </c>
@@ -6110,7 +6118,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>536</v>
       </c>
@@ -6134,7 +6142,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>541</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>543</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>547</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>551</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>554</v>
       </c>
@@ -6254,7 +6262,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>559</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>561</v>
       </c>
@@ -6302,7 +6310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>563</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>565</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>567</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>571</v>
       </c>
@@ -6398,7 +6406,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>575</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>577</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>580</v>
       </c>
@@ -6470,7 +6478,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>585</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>588</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>591</v>
       </c>
@@ -6542,7 +6550,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>596</v>
       </c>
@@ -6567,25 +6575,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H110"/>
+  <autoFilter ref="A2:H110" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>608</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6601,7 +6609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -6609,7 +6617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6617,7 +6625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6625,7 +6633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6633,52 +6641,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -6694,17 +6702,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -6712,7 +6720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -6736,92 +6744,92 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -6829,17 +6837,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -6847,7 +6855,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6855,7 +6863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -6863,7 +6871,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -6871,12 +6879,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6884,17 +6892,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -6902,17 +6910,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6928,57 +6936,57 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -6986,22 +6994,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -7009,27 +7017,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -7037,17 +7045,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -7055,17 +7063,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -7073,27 +7081,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -7101,12 +7109,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -7114,7 +7122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -7122,22 +7130,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -7145,17 +7153,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -7163,12 +7171,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -7200,12 +7208,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>64</v>
       </c>
@@ -7229,12 +7237,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -7250,12 +7258,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>597</v>
       </c>

--- a/data/source/ts_subset_owl_discuss.xlsx
+++ b/data/source/ts_subset_owl_discuss.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoliva/GitHub/CTDasRDF/data/source/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED0CE2-0406-E147-8F27-295284CEDA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="-18580" windowWidth="25220" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="-18525" windowWidth="25215" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ts_subset.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM Terminology 2018-09-28'!$A$2:$H$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ts_subset.csv!$A$2:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ts_subset.csv!$A$2:$S$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="653">
   <si>
     <t>studyid</t>
   </si>
@@ -516,12 +510,6 @@
     <t>study:Sponsor</t>
   </si>
   <si>
-    <t>study:title</t>
-  </si>
-  <si>
-    <t>study:hasLongTitle</t>
-  </si>
-  <si>
     <t>Codelist</t>
   </si>
   <si>
@@ -1861,12 +1849,147 @@
   </si>
   <si>
     <t>CodelistItems</t>
+  </si>
+  <si>
+    <t>study:narms</t>
+  </si>
+  <si>
+    <t>study:isAddOnStudy</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>code:NoYesResponse</t>
+  </si>
+  <si>
+    <t>study:randomizedTrial</t>
+  </si>
+  <si>
+    <t>study:addOn</t>
+  </si>
+  <si>
+    <t>study:adaptiveDesign</t>
+  </si>
+  <si>
+    <t>study:trialType</t>
+  </si>
+  <si>
+    <t>code:TrialType</t>
+  </si>
+  <si>
+    <t>study:studyType</t>
+  </si>
+  <si>
+    <t>study:trialPhase</t>
+  </si>
+  <si>
+    <t>code:TrialPhase</t>
+  </si>
+  <si>
+    <t>study:interventionType</t>
+  </si>
+  <si>
+    <t>code:InterventionType</t>
+  </si>
+  <si>
+    <t>study:StudyIdentifier</t>
+  </si>
+  <si>
+    <t>study:PrimaryOutcomeMeasure</t>
+  </si>
+  <si>
+    <t>study:SecondaryOutcomeMeasure</t>
+  </si>
+  <si>
+    <t>study:controlType</t>
+  </si>
+  <si>
+    <t>code:ControlType</t>
+  </si>
+  <si>
+    <t>study:interventionModel</t>
+  </si>
+  <si>
+    <t>code:InterventionModel</t>
+  </si>
+  <si>
+    <t>study:studyDrug</t>
+  </si>
+  <si>
+    <t>study:blinding</t>
+  </si>
+  <si>
+    <t>code:TrialBlindingSchema</t>
+  </si>
+  <si>
+    <t>study:StudyRegistryIdentifier</t>
+  </si>
+  <si>
+    <t>study:StudyPopulation</t>
+  </si>
+  <si>
+    <t>study:MaximumSubjectAge</t>
+  </si>
+  <si>
+    <t>study:MinimumSubjectAge</t>
+  </si>
+  <si>
+    <t>study:actualPopulationSize</t>
+  </si>
+  <si>
+    <t>study:plannedPopulationSize</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>study:PrimaryObjective</t>
+  </si>
+  <si>
+    <t>study:Study</t>
+  </si>
+  <si>
+    <t>skos:prefLabel</t>
+  </si>
+  <si>
+    <t>study:SecondaryObjective</t>
+  </si>
+  <si>
+    <t>code:StudyType</t>
+  </si>
+  <si>
+    <t>study:Title</t>
+  </si>
+  <si>
+    <t>study:hasTitle</t>
+  </si>
+  <si>
+    <t>study:longTitle</t>
+  </si>
+  <si>
+    <t>study:ageGroup</t>
+  </si>
+  <si>
+    <t>study:sexGroup</t>
+  </si>
+  <si>
+    <t>MappingLevel</t>
+  </si>
+  <si>
+    <t>1 (range-domain)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1908,7 +2031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1924,6 +2047,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +2093,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1972,39 +2107,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2020,11 +2146,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:B111" totalsRowShown="0">
-  <autoFilter ref="A1:B111" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B111" totalsRowShown="0">
+  <autoFilter ref="A1:B111"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PilotStudy"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CodelistItems"/>
+    <tableColumn id="1" name="PilotStudy"/>
+    <tableColumn id="2" name="CodelistItems"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2351,43 +2477,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3"/>
-    <col min="6" max="6" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.5" style="5" customWidth="1"/>
-    <col min="8" max="11" width="11" style="3"/>
-    <col min="12" max="12" width="13" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="19.83203125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="3"/>
+    <col min="6" max="6" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.5" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="11" width="11" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="11" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="19.875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11" style="6"/>
+    <col min="19" max="19" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="6"/>
+    <col min="21" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="M1" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2406,35 +2536,47 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>164</v>
+      <c r="L2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2453,17 +2595,29 @@
       <c r="F3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>254</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>165</v>
+      <c r="L3" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2482,26 +2636,38 @@
       <c r="F4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2512,28 +2678,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2541,25 +2713,37 @@
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O6" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2570,25 +2754,37 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2599,22 +2795,43 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2622,25 +2839,46 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>131</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2651,54 +2889,87 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>115</v>
+        <v>135</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="5">
-        <v>40632</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>112</v>
+      <c r="D11" s="5">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2709,22 +2980,43 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="5">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2732,25 +3024,34 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="5">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2761,22 +3062,34 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2787,60 +3100,66 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>106</v>
+      <c r="D16" s="6">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="10">
+        <v>300</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2851,31 +3170,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2883,72 +3199,63 @@
         <v>11</v>
       </c>
       <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3">
-        <v>26929004</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>32</v>
+      <c r="D19" s="6">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2959,34 +3266,37 @@
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2997,25 +3307,28 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>112</v>
+        <v>59</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -3023,25 +3336,31 @@
         <v>11</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="5">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -3049,25 +3368,31 @@
         <v>11</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3075,25 +3400,31 @@
         <v>11</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O24" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -3104,48 +3435,72 @@
         <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>61</v>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -3153,25 +3508,37 @@
         <v>11</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3179,112 +3546,166 @@
         <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>63</v>
+        <v>119</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="11">
-        <v>35</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="D29" s="5">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="11">
-        <v>48</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="11">
-        <v>23</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="12">
-        <v>300</v>
-      </c>
-      <c r="N31" s="13" t="s">
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -3292,31 +3713,40 @@
         <v>11</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -3324,31 +3754,40 @@
         <v>11</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -3359,22 +3798,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -3385,28 +3824,28 @@
         <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="5">
-        <v>40606</v>
-      </c>
-      <c r="J35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="10">
+        <v>40632</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="6" t="s">
         <v>112</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -3417,66 +3856,48 @@
         <v>1</v>
       </c>
       <c r="D36" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="G36" s="10">
+        <v>54</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>27</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
         <v>10</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="10">
+        <v>81</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -3487,28 +3908,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="5">
-        <v>39634</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -3519,22 +3934,28 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -3545,34 +3966,28 @@
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>32</v>
+        <v>104</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -3583,28 +3998,31 @@
         <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="L41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -3615,34 +4033,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="6">
+        <v>26929004</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -3653,95 +4068,86 @@
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="6">
         <v>1</v>
       </c>
-      <c r="D44" s="3">
-        <v>14</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="6">
         <v>48</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>32</v>
+      <c r="E44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="8">
-        <v>28</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="3">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -3752,70 +4158,60 @@
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
+      </c>
+      <c r="G46" s="10">
+        <v>40606</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="8">
-        <v>29</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="3">
+        <v>42</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="10">
+        <v>39634</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -3826,28 +4222,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3855,31 +4245,28 @@
         <v>11</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -3887,24 +4274,24 @@
         <v>11</v>
       </c>
       <c r="C50" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="M50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="7" t="s">
@@ -3912,13 +4299,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:N49">
-      <sortCondition ref="E1:E49"/>
+  <autoFilter ref="A2:S50">
+    <sortState ref="A3:S50">
+      <sortCondition ref="O2:O50"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3931,7 +4318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,59 +4326,59 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="56.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>126</v>
@@ -4000,22 +4387,22 @@
         <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="84" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>107</v>
@@ -4024,22 +4411,22 @@
         <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -4048,22 +4435,22 @@
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -4072,22 +4459,22 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -4096,214 +4483,214 @@
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>113</v>
@@ -4312,22 +4699,22 @@
         <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>110</v>
@@ -4336,118 +4723,118 @@
         <v>111</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
@@ -4456,22 +4843,22 @@
         <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>41</v>
@@ -4480,430 +4867,430 @@
         <v>42</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="B31" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="B39" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="B41" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>103</v>
@@ -4912,70 +5299,70 @@
         <v>104</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="B42" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>128</v>
@@ -4984,46 +5371,46 @@
         <v>129</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>130</v>
@@ -5032,22 +5419,22 @@
         <v>131</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>134</v>
@@ -5056,46 +5443,46 @@
         <v>135</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
@@ -5104,70 +5491,70 @@
         <v>52</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="B51" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -5176,70 +5563,70 @@
         <v>117</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>54</v>
@@ -5248,22 +5635,22 @@
         <v>55</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>58</v>
@@ -5272,166 +5659,166 @@
         <v>59</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="B58" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="B59" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>100</v>
@@ -5440,70 +5827,70 @@
         <v>101</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="B66" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>138</v>
@@ -5512,214 +5899,214 @@
         <v>139</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="B68" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="H68" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="B69" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="B71" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="B72" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="B73" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="H73" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="B74" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="140" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>69</v>
@@ -5728,70 +6115,70 @@
         <v>70</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="B76" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="B77" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="B78" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>96</v>
@@ -5800,70 +6187,70 @@
         <v>97</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="B79" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="B80" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="B81" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>72</v>
@@ -5872,118 +6259,118 @@
         <v>73</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="B83" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="B84" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="H84" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="B85" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>124</v>
@@ -5992,46 +6379,46 @@
         <v>125</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>75</v>
@@ -6040,118 +6427,118 @@
         <v>76</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G90" s="2" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="B91" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G91" s="2" t="s">
+    </row>
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="B92" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G92" s="2" t="s">
+    </row>
+    <row r="93" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="B93" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>122</v>
@@ -6160,70 +6547,70 @@
         <v>123</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>93</v>
@@ -6232,46 +6619,46 @@
         <v>94</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="84" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="B97" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G97" s="2" t="s">
+    </row>
+    <row r="98" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="B98" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>118</v>
@@ -6280,22 +6667,22 @@
         <v>119</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>25</v>
@@ -6304,22 +6691,22 @@
         <v>26</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>28</v>
@@ -6328,22 +6715,22 @@
         <v>29</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>33</v>
@@ -6352,70 +6739,70 @@
         <v>34</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="B103" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G103" s="2" t="s">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="B104" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>80</v>
@@ -6424,22 +6811,22 @@
         <v>81</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>64</v>
@@ -6448,46 +6835,46 @@
         <v>65</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="B106" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G106" s="2" t="s">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="B107" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>83</v>
@@ -6496,112 +6883,112 @@
         <v>84</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="B108" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="B110" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>600</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H110" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:H110"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6609,7 +6996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -6617,7 +7004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6625,7 +7012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6633,7 +7020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6641,52 +7028,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6694,7 +7081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -6702,17 +7089,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -6720,15 +7107,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6736,7 +7123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -6744,92 +7131,92 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -6837,17 +7224,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -6855,7 +7242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6863,7 +7250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -6871,7 +7258,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -6879,12 +7266,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6892,17 +7279,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -6910,17 +7297,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6928,7 +7315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6936,57 +7323,57 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -6994,22 +7381,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -7017,27 +7404,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -7045,17 +7432,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -7063,17 +7450,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -7081,27 +7468,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -7109,12 +7496,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -7122,7 +7509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -7130,22 +7517,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -7153,17 +7540,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -7171,12 +7558,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -7184,7 +7571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -7192,7 +7579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -7200,7 +7587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -7208,12 +7595,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -7221,7 +7608,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -7229,7 +7616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>64</v>
       </c>
@@ -7237,12 +7624,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -7250,7 +7637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -7258,14 +7645,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/ts_subset_owl_discuss.xlsx
+++ b/data/source/ts_subset_owl_discuss.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="-18525" windowWidth="25215" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="2895" yWindow="-18525" windowWidth="25215" windowHeight="16380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts_subset.csv" sheetId="1" r:id="rId1"/>
     <sheet name="SDTM Terminology 2018-09-28" sheetId="4" r:id="rId2"/>
     <sheet name="TSPARMCD" sheetId="5" r:id="rId3"/>
+    <sheet name="Mapping" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM Terminology 2018-09-28'!$A$2:$H$110</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="661">
   <si>
     <t>studyid</t>
   </si>
@@ -1984,13 +1985,37 @@
   </si>
   <si>
     <t>1 (range-domain)</t>
+  </si>
+  <si>
+    <t>TSPARMCD</t>
+  </si>
+  <si>
+    <t>Trial Summary Parameter Short Name</t>
+  </si>
+  <si>
+    <t>TSPARM</t>
+  </si>
+  <si>
+    <t>Trial Summary Parameter</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>in Pilot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2030,8 +2055,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2062,8 +2103,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2086,6 +2133,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2093,7 +2181,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2124,6 +2212,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2480,10 +2577,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6971,7 +7068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -7661,4 +7758,625 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/source/ts_subset_owl_discuss.xlsx
+++ b/data/source/ts_subset_owl_discuss.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="661">
   <si>
     <t>studyid</t>
   </si>
@@ -7764,8 +7764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7895,8 +7895,12 @@
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -7905,8 +7909,12 @@
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -7978,7 +7986,9 @@
         <v>45</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
